--- a/branches/combine-encounter-changes/all-profiles.xlsx
+++ b/branches/combine-encounter-changes/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:08+00:00</t>
+    <t>2023-02-06T13:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/combine-encounter-changes/all-profiles.xlsx
+++ b/branches/combine-encounter-changes/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8871" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8871" uniqueCount="846">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:41+00:00</t>
+    <t>2023-02-06T14:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2615,7 +2615,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/transferring-facility-encounter)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2646,10 +2646,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
 </sst>
@@ -31126,7 +31122,7 @@
         <v>77</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>837</v>

--- a/branches/combine-encounter-changes/all-profiles.xlsx
+++ b/branches/combine-encounter-changes/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:20:41+00:00</t>
+    <t>2023-02-06T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
